--- a/src/assets/productsinfo.xlsx
+++ b/src/assets/productsinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1426edc62419d1b/Work/Solifokus/Swemount/swemount/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_F25DC773A252ABDACC104823F91F5CF85BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBA0FA92-6906-473F-A4EB-C81E73CD2F62}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC104823F91F5CF85BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D56413-496E-40E9-9D6A-57EAC1110208}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,8 @@
     <sheet name="SKL1000b" sheetId="13" r:id="rId9"/>
     <sheet name="CP1400a" sheetId="9" r:id="rId10"/>
     <sheet name="CP1400b" sheetId="10" r:id="rId11"/>
-    <sheet name="FF1300b" sheetId="15" r:id="rId12"/>
-    <sheet name="FF1300a" sheetId="14" r:id="rId13"/>
+    <sheet name="FF1400b" sheetId="15" r:id="rId12"/>
+    <sheet name="FF1400a" sheetId="14" r:id="rId13"/>
     <sheet name="TF1400b" sheetId="17" r:id="rId14"/>
     <sheet name="TF1400a" sheetId="16" r:id="rId15"/>
     <sheet name="LF1400a" sheetId="18" r:id="rId16"/>
@@ -36,14 +36,14 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="9" hidden="1">CP1400a!$A$1:$F$5</definedName>
     <definedName name="ExternalData_1" localSheetId="10" hidden="1">CP1400b!$A$1:$F$5</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">productsinfo!$A$1:$G$14</definedName>
-    <definedName name="ExternalData_2" localSheetId="12" hidden="1">FF1300a!$A$1:$F$2</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">productsinfo!$A$1:$G$19</definedName>
+    <definedName name="ExternalData_2" localSheetId="12" hidden="1">FF1400a!$A$1:$F$2</definedName>
     <definedName name="ExternalData_2" localSheetId="4" hidden="1">IS2450a!$A$1:$F$3</definedName>
     <definedName name="ExternalData_2" localSheetId="7" hidden="1">SKL1000a!$A$1:$F$3</definedName>
     <definedName name="ExternalData_2" localSheetId="18" hidden="1">SS1025a!$A$1:$F$2</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">SS6190a!$A$1:$F$3</definedName>
     <definedName name="ExternalData_2" localSheetId="5" hidden="1">TS6310a!$A$1:$F$3</definedName>
-    <definedName name="ExternalData_3" localSheetId="11" hidden="1">FF1300b!$A$1:$G$8</definedName>
+    <definedName name="ExternalData_3" localSheetId="11" hidden="1">FF1400b!$A$1:$G$8</definedName>
     <definedName name="ExternalData_3" localSheetId="3" hidden="1">IS2450b!$A$1:$E$7</definedName>
     <definedName name="ExternalData_3" localSheetId="8" hidden="1">SKL1000b!$A$1:$F$4</definedName>
     <definedName name="ExternalData_3" localSheetId="17" hidden="1">SS1025b!$A$1:$G$2</definedName>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="221">
   <si>
     <t>Ändklämma - komplett</t>
   </si>
@@ -765,6 +765,30 @@
   </si>
   <si>
     <t>Artikelnr</t>
+  </si>
+  <si>
+    <t>FF1400</t>
+  </si>
+  <si>
+    <t>Fäste falsad panna solsys gängad</t>
+  </si>
+  <si>
+    <t>BF1400</t>
+  </si>
+  <si>
+    <t>SKL2000</t>
+  </si>
+  <si>
+    <t>KL2000</t>
+  </si>
+  <si>
+    <t>Mittklämma komplett solsystem svart</t>
+  </si>
+  <si>
+    <t>Mittklämma komplett solsystem</t>
+  </si>
+  <si>
+    <t>Fotplatta</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEFC4536-FFD0-476B-8202-9D0B3B794E90}" name="productsinfo" displayName="productsinfo" ref="A1:G14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G14" xr:uid="{CEFC4536-FFD0-476B-8202-9D0B3B794E90}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEFC4536-FFD0-476B-8202-9D0B3B794E90}" name="productsinfo" displayName="productsinfo" ref="A1:G20" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{CEFC4536-FFD0-476B-8202-9D0B3B794E90}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7F3634B6-2A8D-4776-A908-C99C6F63135D}" uniqueName="1" name="name" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{70A07FE0-F49E-4C05-AAC0-C618ABD1FBF9}" uniqueName="2" name="pic" queryTableFieldId="2"/>
@@ -2018,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C6D672-EFCF-4EDF-BC81-F11631506679}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2083,42 +2107,42 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -2129,238 +2153,330 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2825,7 +2941,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
